--- a/CreatedFiles/VAT_2016_6793060742.xlsx
+++ b/CreatedFiles/VAT_2016_6793060742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="138">
   <si>
     <t>Lp</t>
   </si>
@@ -413,6 +413,21 @@
   </si>
   <si>
     <t>784,12</t>
+  </si>
+  <si>
+    <t>ADVATUS SP. Z O.O.</t>
+  </si>
+  <si>
+    <t>RYSZARD MAKOWSKI</t>
+  </si>
+  <si>
+    <t>P4 SP. Z O.O.</t>
+  </si>
+  <si>
+    <t>SHELL POLSKA SP. Z O.O.</t>
+  </si>
+  <si>
+    <t>X-KOM SP. Z O.O.</t>
   </si>
 </sst>
 </file>
@@ -420,13 +435,195 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="79">
+  <fonts count="105">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
@@ -1204,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1258,32 +1455,58 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="1" fillId="0" fontId="54" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="2" fillId="0" fontId="55" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="3" fillId="0" fontId="56" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="4" fillId="0" fontId="57" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="5" fillId="0" fontId="58" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="6" fillId="0" fontId="59" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="60" numFmtId="2" xfId="0" applyFill="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="61" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="62" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="9" fillId="0" fontId="63" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="64" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="11" fillId="0" fontId="65" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="66" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="12" fillId="0" fontId="67" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="13" fillId="0" fontId="68" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="69" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="70" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="7" fillId="0" fontId="71" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="72" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="8" fillId="0" fontId="73" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="10" fillId="0" fontId="74" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="14" fillId="0" fontId="75" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="76" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="15" fillId="0" fontId="77" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="78" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="60" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="1" fillId="0" fontId="80" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="2" fillId="0" fontId="81" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="4" fillId="0" fontId="83" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="5" fillId="0" fontId="84" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="6" fillId="0" fontId="85" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="86" numFmtId="2" xfId="0" applyFill="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="87" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="88" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="9" fillId="0" fontId="89" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="90" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="11" fillId="0" fontId="91" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="92" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="93" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="13" fillId="0" fontId="94" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="95" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="96" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="7" fillId="0" fontId="97" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="98" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="99" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="10" fillId="0" fontId="100" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="14" fillId="0" fontId="101" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="102" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="15" fillId="0" fontId="103" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="104" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2631,16 +2854,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="27.5" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.75" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.25" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="14.25" r="1">
@@ -3979,1314 +4202,1314 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="true">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" ht="14.25" customHeight="true">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" ht="14.25" customHeight="true">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" ht="14.25" customHeight="true">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" ht="14.25" customHeight="true">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="57"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" ht="14.25" customHeight="true">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" ht="14.25" customHeight="true">
-      <c r="A8" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="57"/>
+      <c r="A8" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" ht="14.25" customHeight="true">
-      <c r="A9" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="57"/>
+      <c r="A9" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="83"/>
     </row>
     <row r="10" ht="14.25" customHeight="true">
-      <c r="A10" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="57"/>
+      <c r="A10" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" ht="14.25" customHeight="true">
-      <c r="A11" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="57"/>
+      <c r="A11" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" ht="14.25" customHeight="true">
-      <c r="A12" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="57"/>
+      <c r="A12" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" ht="14.25" customHeight="true">
-      <c r="A13" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="57"/>
+      <c r="A13" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" ht="14.25" customHeight="true">
-      <c r="A14" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="57"/>
+      <c r="A14" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" ht="14.25" customHeight="true">
-      <c r="A15" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="57"/>
+      <c r="A15" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" ht="14.25" customHeight="true">
-      <c r="A16" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="57"/>
+      <c r="A16" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" ht="14.25" customHeight="true">
-      <c r="A17" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="57"/>
+      <c r="A17" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" ht="14.25" customHeight="true">
-      <c r="A18" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="57"/>
+      <c r="A18" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" ht="14.25" customHeight="true">
-      <c r="A19" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="57"/>
+      <c r="A19" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" ht="14.25" customHeight="true">
-      <c r="A20" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="57"/>
+      <c r="A20" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" ht="15.75" customHeight="true">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="62" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="57"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" ht="15.75" customHeight="true">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="59"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" ht="15.0" customHeight="true">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" ht="14.25" customHeight="true">
-      <c r="A24" s="68"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" ht="14.25" customHeight="true">
-      <c r="A25" s="68"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
     </row>
     <row r="26" ht="15.0" customHeight="true">
-      <c r="A26" s="68"/>
-      <c r="B26" s="58" t="n">
+      <c r="A26" s="94"/>
+      <c r="B26" s="84" t="n">
         <v>23.0</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
     </row>
     <row r="27" ht="15.0" customHeight="true">
-      <c r="A27" s="68"/>
-      <c r="B27" s="58" t="n">
+      <c r="A27" s="94"/>
+      <c r="B27" s="84" t="n">
         <v>8.0</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" ht="15.0" customHeight="true">
-      <c r="A28" s="68"/>
-      <c r="B28" s="58" t="n">
+      <c r="A28" s="94"/>
+      <c r="B28" s="84" t="n">
         <v>5.0</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" ht="15.0" customHeight="true">
-      <c r="A29" s="68"/>
-      <c r="B29" s="58" t="n">
+      <c r="A29" s="94"/>
+      <c r="B29" s="84" t="n">
         <v>0.0</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" ht="15.75" customHeight="true">
-      <c r="A30" s="68"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" ht="14.25" customHeight="true">
-      <c r="A31" s="59"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" ht="14.25" customHeight="true">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" ht="14.25" customHeight="true">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" ht="14.25" customHeight="true">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" ht="14.25" customHeight="true">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" ht="15.0" customHeight="true">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="59"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" ht="14.25" customHeight="true">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="H37" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="57"/>
+      <c r="I37" s="83"/>
     </row>
     <row r="38" ht="14.25" customHeight="true">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="59" t="s">
+      <c r="D38" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="57"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" ht="14.25" customHeight="true">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="59" t="s">
+      <c r="D39" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="57"/>
+      <c r="I39" s="83"/>
     </row>
     <row r="40" ht="14.25" customHeight="true">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="59" t="s">
+      <c r="D40" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="I40" s="57"/>
+      <c r="I40" s="83"/>
     </row>
     <row r="41" ht="14.25" customHeight="true">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="57"/>
+      <c r="I41" s="83"/>
     </row>
     <row r="42" ht="14.25" customHeight="true">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="59" t="s">
+      <c r="D42" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H42" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="57"/>
+      <c r="I42" s="83"/>
     </row>
     <row r="43" ht="14.25" customHeight="true">
-      <c r="A43" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="57"/>
+      <c r="A43" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="83"/>
     </row>
     <row r="44" ht="14.25" customHeight="true">
-      <c r="A44" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="57"/>
+      <c r="A44" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="83"/>
     </row>
     <row r="45" ht="14.25" customHeight="true">
-      <c r="A45" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="57"/>
+      <c r="A45" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="83"/>
     </row>
     <row r="46" ht="14.25" customHeight="true">
-      <c r="A46" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="57"/>
+      <c r="A46" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="83"/>
     </row>
     <row r="47" ht="14.25" customHeight="true">
-      <c r="A47" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="57"/>
+      <c r="A47" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="83"/>
     </row>
     <row r="48" ht="14.25" customHeight="true">
-      <c r="A48" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="57"/>
+      <c r="A48" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="83"/>
     </row>
     <row r="49" ht="14.25" customHeight="true">
-      <c r="A49" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="57"/>
+      <c r="A49" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="83"/>
     </row>
     <row r="50" ht="14.25" customHeight="true">
-      <c r="A50" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="57"/>
+      <c r="A50" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="83"/>
     </row>
     <row r="51" ht="14.25" customHeight="true">
-      <c r="A51" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="57"/>
+      <c r="A51" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="83"/>
     </row>
     <row r="52" ht="15.75" customHeight="true">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="62" t="s">
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="64" t="s">
+      <c r="H52" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="I52" s="57"/>
+      <c r="I52" s="83"/>
     </row>
     <row r="53" ht="14.25" customHeight="true">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="59"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="85"/>
     </row>
     <row r="54" ht="14.25" customHeight="true">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
     </row>
     <row r="55" ht="15.75" customHeight="true">
-      <c r="A55" s="59"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
     </row>
     <row r="56" ht="15.0" customHeight="true">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69" t="s">
+      <c r="A56" s="94"/>
+      <c r="B56" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
     </row>
     <row r="57" ht="14.25" customHeight="true">
-      <c r="A57" s="68"/>
-      <c r="B57" s="58" t="s">
+      <c r="A57" s="94"/>
+      <c r="B57" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
     </row>
     <row r="58" ht="15.75" customHeight="true">
-      <c r="A58" s="68"/>
-      <c r="B58" s="58" t="n">
+      <c r="A58" s="94"/>
+      <c r="B58" s="84" t="n">
         <v>23.0</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="72" t="s">
+      <c r="D58" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="71" t="s">
+      <c r="E58" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
     </row>
     <row r="59" ht="15.0" customHeight="true">
-      <c r="A59" s="68"/>
-      <c r="B59" s="58" t="n">
+      <c r="A59" s="94"/>
+      <c r="B59" s="84" t="n">
         <v>8.0</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="77"/>
-      <c r="G59" s="69" t="s">
+      <c r="F59" s="103"/>
+      <c r="G59" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="70" t="s">
+      <c r="H59" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="I59" s="78" t="s">
+      <c r="I59" s="104" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="true">
-      <c r="A60" s="68"/>
-      <c r="B60" s="58" t="n">
+      <c r="A60" s="94"/>
+      <c r="B60" s="84" t="n">
         <v>5.0</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="71" t="s">
+      <c r="E60" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="77"/>
-      <c r="G60" s="61" t="s">
+      <c r="F60" s="103"/>
+      <c r="G60" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="62" t="s">
+      <c r="H60" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="64" t="s">
+      <c r="I60" s="90" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="61" ht="15.0" customHeight="true">
-      <c r="A61" s="68"/>
-      <c r="B61" s="58" t="n">
+      <c r="A61" s="94"/>
+      <c r="B61" s="84" t="n">
         <v>0.0</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="57"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" ht="15.75" customHeight="true">
-      <c r="A62" s="68"/>
-      <c r="B62" s="73" t="s">
+      <c r="A62" s="94"/>
+      <c r="B62" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="74" t="s">
+      <c r="E62" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
     </row>
     <row r="63" ht="14.25" customHeight="true">
-      <c r="A63" s="59"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" ht="14.25" customHeight="true">
-      <c r="A64" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
+      <c r="A64" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CreatedFiles/VAT_2016_6793060742.xlsx
+++ b/CreatedFiles/VAT_2016_6793060742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="138">
   <si>
     <t>Lp</t>
   </si>
@@ -435,13 +435,195 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="105">
+  <fonts count="131">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:charset val="238"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
@@ -1401,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1481,32 +1663,58 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="1" fillId="0" fontId="80" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="2" fillId="0" fontId="81" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="4" fillId="0" fontId="83" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="5" fillId="0" fontId="84" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="6" fillId="0" fontId="85" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="86" numFmtId="2" xfId="0" applyFill="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="87" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="88" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="9" fillId="0" fontId="89" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="90" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="11" fillId="0" fontId="91" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="92" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="12" fillId="0" fontId="93" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="13" fillId="0" fontId="94" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="95" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="96" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="7" fillId="0" fontId="97" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="98" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="8" fillId="0" fontId="99" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="10" fillId="0" fontId="100" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" borderId="14" fillId="0" fontId="101" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="102" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="15" fillId="0" fontId="103" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="104" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="86" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="1" fillId="0" fontId="106" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="2" fillId="0" fontId="107" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="3" fillId="0" fontId="108" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="4" fillId="0" fontId="109" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="5" fillId="0" fontId="110" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="6" fillId="0" fontId="111" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="112" numFmtId="2" xfId="0" applyFill="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="113" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="114" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="9" fillId="0" fontId="115" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="116" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="11" fillId="0" fontId="117" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="118" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="119" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="13" fillId="0" fontId="120" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="121" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="122" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="7" fillId="0" fontId="123" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="124" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="125" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="10" fillId="0" fontId="126" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" borderId="14" fillId="0" fontId="127" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="128" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="15" fillId="0" fontId="129" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="130" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4202,1314 +4410,1314 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="true">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" ht="14.25" customHeight="true">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" ht="14.25" customHeight="true">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" ht="14.25" customHeight="true">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" ht="14.25" customHeight="true">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" ht="14.25" customHeight="true">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="83"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" ht="14.25" customHeight="true">
-      <c r="A8" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="83"/>
+      <c r="A8" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" ht="14.25" customHeight="true">
-      <c r="A9" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="83"/>
+      <c r="A9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="109"/>
     </row>
     <row r="10" ht="14.25" customHeight="true">
-      <c r="A10" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="83"/>
+      <c r="A10" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="109"/>
     </row>
     <row r="11" ht="14.25" customHeight="true">
-      <c r="A11" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="83"/>
+      <c r="A11" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="109"/>
     </row>
     <row r="12" ht="14.25" customHeight="true">
-      <c r="A12" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="83"/>
+      <c r="A12" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" ht="14.25" customHeight="true">
-      <c r="A13" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="83"/>
+      <c r="A13" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" ht="14.25" customHeight="true">
-      <c r="A14" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="83"/>
+      <c r="A14" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="109"/>
     </row>
     <row r="15" ht="14.25" customHeight="true">
-      <c r="A15" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="83"/>
+      <c r="A15" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="109"/>
     </row>
     <row r="16" ht="14.25" customHeight="true">
-      <c r="A16" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="83"/>
+      <c r="A16" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" ht="14.25" customHeight="true">
-      <c r="A17" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="83"/>
+      <c r="A17" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="109"/>
     </row>
     <row r="18" ht="14.25" customHeight="true">
-      <c r="A18" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="83"/>
+      <c r="A18" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" ht="14.25" customHeight="true">
-      <c r="A19" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="83"/>
+      <c r="A19" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="109"/>
     </row>
     <row r="20" ht="14.25" customHeight="true">
-      <c r="A20" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="83"/>
+      <c r="A20" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" ht="15.75" customHeight="true">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="88" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="90" t="s">
+      <c r="H21" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="83"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" ht="15.75" customHeight="true">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="85"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="111"/>
     </row>
     <row r="23" ht="15.0" customHeight="true">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
     </row>
     <row r="24" ht="14.25" customHeight="true">
-      <c r="A24" s="94"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
     </row>
     <row r="25" ht="14.25" customHeight="true">
-      <c r="A25" s="94"/>
-      <c r="B25" s="84" t="s">
+      <c r="A25" s="120"/>
+      <c r="B25" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="97" t="s">
+      <c r="E25" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
     </row>
     <row r="26" ht="15.0" customHeight="true">
-      <c r="A26" s="94"/>
-      <c r="B26" s="84" t="n">
+      <c r="A26" s="120"/>
+      <c r="B26" s="110" t="n">
         <v>23.0</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="83"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
     </row>
     <row r="27" ht="15.0" customHeight="true">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="n">
+      <c r="A27" s="120"/>
+      <c r="B27" s="110" t="n">
         <v>8.0</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
     </row>
     <row r="28" ht="15.0" customHeight="true">
-      <c r="A28" s="94"/>
-      <c r="B28" s="84" t="n">
+      <c r="A28" s="120"/>
+      <c r="B28" s="110" t="n">
         <v>5.0</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="83"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
     </row>
     <row r="29" ht="15.0" customHeight="true">
-      <c r="A29" s="94"/>
-      <c r="B29" s="84" t="n">
+      <c r="A29" s="120"/>
+      <c r="B29" s="110" t="n">
         <v>0.0</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
     </row>
     <row r="30" ht="15.75" customHeight="true">
-      <c r="A30" s="94"/>
-      <c r="B30" s="99" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="D30" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
     </row>
     <row r="31" ht="14.25" customHeight="true">
-      <c r="A31" s="85"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
     </row>
     <row r="32" ht="14.25" customHeight="true">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
     </row>
     <row r="33" ht="14.25" customHeight="true">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
     </row>
     <row r="34" ht="14.25" customHeight="true">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
     </row>
     <row r="35" ht="14.25" customHeight="true">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" ht="15.0" customHeight="true">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="85"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="111"/>
     </row>
     <row r="37" ht="14.25" customHeight="true">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="83"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" ht="14.25" customHeight="true">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="85" t="s">
+      <c r="G38" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="83"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" ht="14.25" customHeight="true">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="85" t="s">
+      <c r="F39" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="85" t="s">
+      <c r="G39" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="83"/>
+      <c r="I39" s="109"/>
     </row>
     <row r="40" ht="14.25" customHeight="true">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="85" t="s">
+      <c r="G40" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="I40" s="83"/>
+      <c r="I40" s="109"/>
     </row>
     <row r="41" ht="14.25" customHeight="true">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="85" t="s">
+      <c r="E41" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="85" t="s">
+      <c r="G41" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="83"/>
+      <c r="I41" s="109"/>
     </row>
     <row r="42" ht="14.25" customHeight="true">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="85" t="s">
+      <c r="F42" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="85" t="s">
+      <c r="G42" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="86" t="s">
+      <c r="H42" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="83"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" ht="14.25" customHeight="true">
-      <c r="A43" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="83"/>
+      <c r="A43" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" ht="14.25" customHeight="true">
-      <c r="A44" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="83"/>
+      <c r="A44" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" ht="14.25" customHeight="true">
-      <c r="A45" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="83"/>
+      <c r="A45" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" ht="14.25" customHeight="true">
-      <c r="A46" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="83"/>
+      <c r="A46" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" ht="14.25" customHeight="true">
-      <c r="A47" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="83"/>
+      <c r="A47" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" ht="14.25" customHeight="true">
-      <c r="A48" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="83"/>
+      <c r="A48" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" ht="14.25" customHeight="true">
-      <c r="A49" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="83"/>
+      <c r="A49" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" ht="14.25" customHeight="true">
-      <c r="A50" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="83"/>
+      <c r="A50" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" ht="14.25" customHeight="true">
-      <c r="A51" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="83"/>
+      <c r="A51" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" ht="15.75" customHeight="true">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="88" t="s">
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="90" t="s">
+      <c r="H52" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="I52" s="83"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" ht="14.25" customHeight="true">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="85"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" ht="14.25" customHeight="true">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" ht="15.75" customHeight="true">
-      <c r="A55" s="85"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" ht="15.0" customHeight="true">
-      <c r="A56" s="94"/>
-      <c r="B56" s="95" t="s">
+      <c r="A56" s="120"/>
+      <c r="B56" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" ht="14.25" customHeight="true">
-      <c r="A57" s="94"/>
-      <c r="B57" s="84" t="s">
+      <c r="A57" s="120"/>
+      <c r="B57" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="97" t="s">
+      <c r="E57" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="83"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
     </row>
     <row r="58" ht="15.75" customHeight="true">
-      <c r="A58" s="94"/>
-      <c r="B58" s="84" t="n">
+      <c r="A58" s="120"/>
+      <c r="B58" s="110" t="n">
         <v>23.0</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="98" t="s">
+      <c r="D58" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="97" t="s">
+      <c r="E58" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="83"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
     </row>
     <row r="59" ht="15.0" customHeight="true">
-      <c r="A59" s="94"/>
-      <c r="B59" s="84" t="n">
+      <c r="A59" s="120"/>
+      <c r="B59" s="110" t="n">
         <v>8.0</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="97" t="s">
+      <c r="E59" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="103"/>
-      <c r="G59" s="95" t="s">
+      <c r="F59" s="129"/>
+      <c r="G59" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="96" t="s">
+      <c r="H59" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="I59" s="104" t="s">
+      <c r="I59" s="130" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="true">
-      <c r="A60" s="94"/>
-      <c r="B60" s="84" t="n">
+      <c r="A60" s="120"/>
+      <c r="B60" s="110" t="n">
         <v>5.0</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="98" t="s">
+      <c r="D60" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="97" t="s">
+      <c r="E60" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="103"/>
-      <c r="G60" s="87" t="s">
+      <c r="F60" s="129"/>
+      <c r="G60" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="88" t="s">
+      <c r="H60" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="90" t="s">
+      <c r="I60" s="116" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="61" ht="15.0" customHeight="true">
-      <c r="A61" s="94"/>
-      <c r="B61" s="84" t="n">
+      <c r="A61" s="120"/>
+      <c r="B61" s="110" t="n">
         <v>0.0</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="97" t="s">
+      <c r="E61" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="83"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
     </row>
     <row r="62" ht="15.75" customHeight="true">
-      <c r="A62" s="94"/>
-      <c r="B62" s="99" t="s">
+      <c r="A62" s="120"/>
+      <c r="B62" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="89" t="s">
+      <c r="C62" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="88" t="s">
+      <c r="D62" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="100" t="s">
+      <c r="E62" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="83"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
     </row>
     <row r="63" ht="14.25" customHeight="true">
-      <c r="A63" s="85"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
+      <c r="A63" s="111"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111"/>
     </row>
     <row r="64" ht="14.25" customHeight="true">
-      <c r="A64" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
+      <c r="A64" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
